--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ncam1-Fgfr1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H2">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J2">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N2">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P2">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q2">
-        <v>1.13374372098</v>
+        <v>3.112648103417777</v>
       </c>
       <c r="R2">
-        <v>10.20369348882</v>
+        <v>28.01383293076</v>
       </c>
       <c r="S2">
-        <v>0.0001030776466982095</v>
+        <v>0.0002469552831127114</v>
       </c>
       <c r="T2">
-        <v>0.0001030776466982096</v>
+        <v>0.0002469552831127114</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H3">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I3">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J3">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N3">
         <v>247.44181</v>
       </c>
       <c r="O3">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P3">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q3">
-        <v>24.80967059904666</v>
+        <v>32.27204819856111</v>
       </c>
       <c r="R3">
-        <v>223.28703539142</v>
+        <v>290.44843378705</v>
       </c>
       <c r="S3">
-        <v>0.002255644210754223</v>
+        <v>0.002560441313861245</v>
       </c>
       <c r="T3">
-        <v>0.002255644210754224</v>
+        <v>0.002560441313861245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H4">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I4">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J4">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N4">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O4">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P4">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q4">
-        <v>16.08388792230133</v>
+        <v>26.17701526244611</v>
       </c>
       <c r="R4">
-        <v>144.754991300712</v>
+        <v>235.593137362015</v>
       </c>
       <c r="S4">
-        <v>0.001462314001047352</v>
+        <v>0.00207686574273683</v>
       </c>
       <c r="T4">
-        <v>0.001462314001047352</v>
+        <v>0.002076865742736829</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.300794</v>
+        <v>0.3912683333333333</v>
       </c>
       <c r="H5">
-        <v>0.902382</v>
+        <v>1.173805</v>
       </c>
       <c r="I5">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="J5">
-        <v>0.003836667885433927</v>
+        <v>0.004923718964983145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N5">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P5">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q5">
-        <v>0.1719355548993333</v>
+        <v>0.4973150939444445</v>
       </c>
       <c r="R5">
-        <v>1.547419994094</v>
+        <v>4.475835845500001</v>
       </c>
       <c r="S5">
-        <v>1.563202693414232E-05</v>
+        <v>3.945662527235925E-05</v>
       </c>
       <c r="T5">
-        <v>1.563202693414232E-05</v>
+        <v>3.945662527235924E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>18.805976</v>
       </c>
       <c r="I6">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J6">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N6">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P6">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q6">
-        <v>23.62764018664</v>
+        <v>49.86891820133688</v>
       </c>
       <c r="R6">
-        <v>212.64876167976</v>
+        <v>448.820263812032</v>
       </c>
       <c r="S6">
-        <v>0.002148176437410108</v>
+        <v>0.003956564444086416</v>
       </c>
       <c r="T6">
-        <v>0.002148176437410108</v>
+        <v>0.003956564444086416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>18.805976</v>
       </c>
       <c r="I7">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J7">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N7">
         <v>247.44181</v>
       </c>
       <c r="O7">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P7">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q7">
         <v>517.0427489173956</v>
       </c>
       <c r="R7">
-        <v>4653.38474025656</v>
+        <v>4653.384740256561</v>
       </c>
       <c r="S7">
-        <v>0.04700846303669939</v>
+        <v>0.04102180336417297</v>
       </c>
       <c r="T7">
-        <v>0.0470084630366994</v>
+        <v>0.04102180336417297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>18.805976</v>
       </c>
       <c r="I8">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J8">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N8">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O8">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P8">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q8">
-        <v>335.1941974169351</v>
+        <v>419.3919098804276</v>
       </c>
       <c r="R8">
-        <v>3016.747776752416</v>
+        <v>3774.527188923848</v>
       </c>
       <c r="S8">
-        <v>0.03047516684526118</v>
+        <v>0.03327425536024382</v>
       </c>
       <c r="T8">
-        <v>0.03047516684526118</v>
+        <v>0.03327425536024382</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>18.805976</v>
       </c>
       <c r="I9">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="J9">
-        <v>0.07995758356598556</v>
+        <v>0.07888477275715973</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N9">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P9">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q9">
-        <v>3.583200816265778</v>
+        <v>7.967674120622224</v>
       </c>
       <c r="R9">
-        <v>32.24880734639201</v>
+        <v>71.70906708560001</v>
       </c>
       <c r="S9">
-        <v>0.0003257772466148859</v>
+        <v>0.0006321495886565328</v>
       </c>
       <c r="T9">
-        <v>0.0003257772466148859</v>
+        <v>0.0006321495886565327</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H10">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I10">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J10">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N10">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O10">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P10">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q10">
-        <v>270.56961340283</v>
+        <v>578.2570305972488</v>
       </c>
       <c r="R10">
-        <v>2435.12652062547</v>
+        <v>5204.313275375239</v>
       </c>
       <c r="S10">
-        <v>0.02459963261670848</v>
+        <v>0.04587850086434662</v>
       </c>
       <c r="T10">
-        <v>0.02459963261670849</v>
+        <v>0.04587850086434662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H11">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I11">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J11">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N11">
         <v>247.44181</v>
       </c>
       <c r="O11">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P11">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q11">
-        <v>5920.864529095841</v>
+        <v>5995.389823250605</v>
       </c>
       <c r="R11">
-        <v>53287.78076186257</v>
+        <v>53958.50840925545</v>
       </c>
       <c r="S11">
-        <v>0.5383128221875004</v>
+        <v>0.4756699575342898</v>
       </c>
       <c r="T11">
-        <v>0.5383128221875005</v>
+        <v>0.4756699575342898</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H12">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I12">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J12">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N12">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O12">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P12">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q12">
-        <v>3838.443606452651</v>
+        <v>4863.07562327397</v>
       </c>
       <c r="R12">
-        <v>34545.99245807385</v>
+        <v>43767.68060946573</v>
       </c>
       <c r="S12">
-        <v>0.3489833959961637</v>
+        <v>0.3858329555549365</v>
       </c>
       <c r="T12">
-        <v>0.3489833959961638</v>
+        <v>0.3858329555549364</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>71.78493233333334</v>
+        <v>72.68848166666666</v>
       </c>
       <c r="H13">
-        <v>215.354797</v>
+        <v>218.065445</v>
       </c>
       <c r="I13">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="J13">
-        <v>0.9156264571146617</v>
+        <v>0.9147115297293749</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N13">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O13">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P13">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q13">
-        <v>41.03267410301656</v>
+        <v>92.38948314772223</v>
       </c>
       <c r="R13">
-        <v>369.2940669271491</v>
+        <v>831.5053483295001</v>
       </c>
       <c r="S13">
-        <v>0.003730606314289016</v>
+        <v>0.007330115775801998</v>
       </c>
       <c r="T13">
-        <v>0.003730606314289016</v>
+        <v>0.007330115775801997</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H14">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I14">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J14">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.769169999999999</v>
+        <v>7.955277333333332</v>
       </c>
       <c r="N14">
-        <v>11.30751</v>
+        <v>23.865832</v>
       </c>
       <c r="O14">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675284</v>
       </c>
       <c r="P14">
-        <v>0.02686645020528053</v>
+        <v>0.05015625076675283</v>
       </c>
       <c r="Q14">
-        <v>0.17118188111</v>
+        <v>0.9356042566186665</v>
       </c>
       <c r="R14">
-        <v>1.54063692999</v>
+        <v>8.420438309568</v>
       </c>
       <c r="S14">
-        <v>1.556350446372418E-05</v>
+        <v>7.423017520709086E-05</v>
       </c>
       <c r="T14">
-        <v>1.556350446372418E-05</v>
+        <v>7.423017520709085E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H15">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I15">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J15">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>82.48060333333332</v>
+        <v>82.48060333333333</v>
       </c>
       <c r="N15">
         <v>247.44181</v>
       </c>
       <c r="O15">
-        <v>0.5879175050094569</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="P15">
-        <v>0.5879175050094571</v>
+        <v>0.520021823355633</v>
       </c>
       <c r="Q15">
-        <v>3.745966574521111</v>
+        <v>9.700378796826667</v>
       </c>
       <c r="R15">
-        <v>33.71369917069</v>
+        <v>87.30340917144001</v>
       </c>
       <c r="S15">
-        <v>0.0003405755745028737</v>
+        <v>0.0007696211433089652</v>
       </c>
       <c r="T15">
-        <v>0.0003405755745028738</v>
+        <v>0.0007696211433089652</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H16">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I16">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J16">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.47143866666666</v>
+        <v>66.90297433333333</v>
       </c>
       <c r="N16">
-        <v>160.414316</v>
+        <v>200.708923</v>
       </c>
       <c r="O16">
-        <v>0.3811416689464024</v>
+        <v>0.4218083439585467</v>
       </c>
       <c r="P16">
-        <v>0.3811416689464025</v>
+        <v>0.4218083439585465</v>
       </c>
       <c r="Q16">
-        <v>2.428476682298222</v>
+        <v>7.868325005394667</v>
       </c>
       <c r="R16">
-        <v>21.856290140684</v>
+        <v>70.814925048552</v>
       </c>
       <c r="S16">
-        <v>0.0002207921039301544</v>
+        <v>0.0006242673006294736</v>
       </c>
       <c r="T16">
-        <v>0.0002207921039301545</v>
+        <v>0.0006242673006294734</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.04541633333333334</v>
+        <v>0.117608</v>
       </c>
       <c r="H17">
-        <v>0.136249</v>
+        <v>0.352824</v>
       </c>
       <c r="I17">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="J17">
-        <v>0.0005792914339187696</v>
+        <v>0.001479978548482255</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5716056666666667</v>
+        <v>1.271033333333333</v>
       </c>
       <c r="N17">
-        <v>1.714817</v>
+        <v>3.8131</v>
       </c>
       <c r="O17">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067616</v>
       </c>
       <c r="P17">
-        <v>0.004074375838860062</v>
+        <v>0.008013581919067614</v>
       </c>
       <c r="Q17">
-        <v>0.02596023349255556</v>
+        <v>0.1494836882666667</v>
       </c>
       <c r="R17">
-        <v>0.233642101433</v>
+        <v>1.3453531944</v>
       </c>
       <c r="S17">
-        <v>2.360251022017235E-06</v>
+        <v>1.185992933672533E-05</v>
       </c>
       <c r="T17">
-        <v>2.360251022017235E-06</v>
+        <v>1.185992933672533E-05</v>
       </c>
     </row>
   </sheetData>
